--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1741362.156130654</v>
+        <v>-1743938.477611895</v>
       </c>
     </row>
     <row r="7">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.276279573897828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>204.6892047803791</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>117.892688866065</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>166.5901025397182</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>96.94563888361215</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>115.0138334144182</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>1.190421113302141</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>128.3344840049811</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>236.8575456890654</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>54.63637568893794</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>172.3645574474256</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>53.30076123484789</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.4048731212369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.4877306469552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>20.43112068613155</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3190,13 +3190,13 @@
         <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261725</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002292</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3554,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.299101484275</v>
+        <v>2098.94140762926</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1729.978890688848</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1371.713192082098</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>985.9249394838532</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.038273524209</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548397</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>610.1175975378749</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877106</v>
+        <v>610.1175975378749</v>
       </c>
       <c r="V4" t="n">
-        <v>699.1203903877106</v>
+        <v>610.1175975378749</v>
       </c>
       <c r="W4" t="n">
-        <v>530.8475595395104</v>
+        <v>610.1175975378749</v>
       </c>
       <c r="X4" t="n">
-        <v>530.8475595395104</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1659.057359339774</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1659.057359339774</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1300.791660733024</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>915.0034081347794</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>504.0175033451719</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
@@ -4574,19 +4574,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379708</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2435.796531379708</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>2045.657199403896</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.6877057396765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>182.6877057396765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>182.6877057396765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.6877057396765</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513.341883274785</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1144.379366334374</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276231</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3324.403376040179</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3070.872899314016</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.941723338907</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.8443805240842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>681.6369596676143</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>681.6369596676143</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6369596676143</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>681.6369596676143</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>460.8443805240842</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.9192356072739</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
         <v>929.7309773356194</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510511</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648821</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750804</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072739</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,37 +5279,37 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2326.07822707019</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854707</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5604,16 +5604,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>801.6605733532803</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,28 +5984,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,16 +6212,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6853,13 +6853,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7798,10 +7798,10 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>356.9966121971097</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>202.1868409613323</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>101.6562604101042</v>
       </c>
       <c r="U4" t="n">
-        <v>76.5685604759859</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>119.9328957968728</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>154.3624236453983</v>
       </c>
     </row>
     <row r="5">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>112.6104454096899</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>45.04089287986264</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>127.7255247667967</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.30478226780022</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.0090104515</v>
+        <v>99467.00901045147</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26338,10 +26338,10 @@
         <v>121071.9899535009</v>
       </c>
       <c r="K2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="L2" t="n">
         <v>123156.2654796424</v>
-      </c>
-      <c r="L2" t="n">
-        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363183</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363187</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020547</v>
+        <v>3456.42652202055</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
@@ -26427,37 +26427,37 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="H4" t="n">
-        <v>14826.69604186737</v>
-      </c>
       <c r="I4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="J4" t="n">
-        <v>14826.69604186738</v>
-      </c>
       <c r="K4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496081</v>
       </c>
       <c r="M4" t="n">
+        <v>22817.55530496081</v>
+      </c>
+      <c r="N4" t="n">
         <v>22817.55530496084</v>
       </c>
-      <c r="N4" t="n">
-        <v>22817.55530496081</v>
-      </c>
       <c r="O4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340668.103800555</v>
+        <v>-1341062.924741708</v>
       </c>
       <c r="C6" t="n">
-        <v>-78374.41918580334</v>
+        <v>-78374.41918580333</v>
       </c>
       <c r="D6" t="n">
         <v>-78374.41918580334</v>
       </c>
       <c r="E6" t="n">
-        <v>-320289.697719629</v>
+        <v>-320324.4356450643</v>
       </c>
       <c r="F6" t="n">
-        <v>5122.764087726464</v>
+        <v>5088.026162290582</v>
       </c>
       <c r="G6" t="n">
-        <v>5122.764087726464</v>
+        <v>5088.026162290815</v>
       </c>
       <c r="H6" t="n">
-        <v>5122.764087726449</v>
+        <v>5088.026162290727</v>
       </c>
       <c r="I6" t="n">
-        <v>5122.764087726464</v>
+        <v>5088.026162290771</v>
       </c>
       <c r="J6" t="n">
-        <v>-212408.438309551</v>
+        <v>-212443.1762349867</v>
       </c>
       <c r="K6" t="n">
-        <v>-22253.12367286553</v>
+        <v>-22253.12367286559</v>
       </c>
       <c r="L6" t="n">
+        <v>-2825.405679233736</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-87880.43361474545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2825.405679233751</v>
+      </c>
+      <c r="O6" t="n">
         <v>-2825.405679233721</v>
       </c>
-      <c r="M6" t="n">
-        <v>-87880.43361474569</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2825.405679233692</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-2825.405679233707</v>
-      </c>
       <c r="P6" t="n">
-        <v>-22253.12367286548</v>
+        <v>-22253.12367286562</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203979</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>209.643277729627</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>64.22222970669648</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>313.9760867698413</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>31.42012923215098</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>202.727549026318</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>257.9034546510725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>49.35429251654745</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107737</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532615</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>514.695376254093</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>514.695376254093</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663293</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191329</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312432</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>372.0991318096486</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>372.0991318096486</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
